--- a/doc/moodle_api_functions_service_alignment.xlsx
+++ b/doc/moodle_api_functions_service_alignment.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/zhaw/moodle-autopilot/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB92B8-D334-F740-9E58-BA0B496A58CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1303D9-1066-BF42-8DBF-A0C776689A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="23620" windowHeight="16160" xr2:uid="{4A1A6958-026D-2A45-AE79-6259C8271175}"/>
+    <workbookView xWindow="3180" yWindow="500" windowWidth="23620" windowHeight="16160" xr2:uid="{4A1A6958-026D-2A45-AE79-6259C8271175}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1257">
   <si>
     <t>Area</t>
   </si>
@@ -3802,6 +3802,9 @@
   </si>
   <si>
     <t>moodle_autopilot</t>
+  </si>
+  <si>
+    <t>MUST</t>
   </si>
 </sst>
 </file>
@@ -4184,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E3D07F-206A-2147-86B7-617CA66DDB11}">
-  <dimension ref="A1:H591"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C354" workbookViewId="0">
+      <selection activeCell="I369" sqref="I369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7807,7 +7810,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>310</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>310</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>310</v>
       </c>
@@ -7884,8 +7887,11 @@
       <c r="H163" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I163" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>310</v>
       </c>
@@ -7907,7 +7913,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>310</v>
       </c>
@@ -7929,7 +7935,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>310</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>310</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>310</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>310</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>310</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>310</v>
       </c>
@@ -8078,7 +8084,7 @@
       </c>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>310</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>310</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>310</v>
       </c>
@@ -8151,7 +8157,7 @@
       </c>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>310</v>
       </c>
@@ -8172,7 +8178,7 @@
       </c>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>310</v>
       </c>
@@ -12513,7 +12519,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>763</v>
       </c>
@@ -12537,7 +12543,7 @@
       </c>
       <c r="H353" s="6"/>
     </row>
-    <row r="354" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>763</v>
       </c>
@@ -12561,7 +12567,7 @@
       </c>
       <c r="H354" s="6"/>
     </row>
-    <row r="355" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>763</v>
       </c>
@@ -12585,7 +12591,7 @@
       </c>
       <c r="H355" s="6"/>
     </row>
-    <row r="356" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>772</v>
       </c>
@@ -12611,7 +12617,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>772</v>
       </c>
@@ -12637,7 +12643,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>777</v>
       </c>
@@ -12661,7 +12667,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>777</v>
       </c>
@@ -12686,8 +12692,11 @@
       <c r="H359" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I359" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>777</v>
       </c>
@@ -12713,7 +12722,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>777</v>
       </c>
@@ -12739,7 +12748,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>777</v>
       </c>
@@ -12765,7 +12774,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>777</v>
       </c>
@@ -12790,8 +12799,11 @@
       <c r="H363" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I363" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>777</v>
       </c>
@@ -12817,7 +12829,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>777</v>
       </c>
@@ -12843,7 +12855,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>777</v>
       </c>
@@ -12869,7 +12881,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>777</v>
       </c>
@@ -12895,7 +12907,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>777</v>
       </c>
@@ -12921,7 +12933,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>777</v>
       </c>
@@ -12947,7 +12959,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>777</v>
       </c>
@@ -12972,8 +12984,11 @@
       <c r="H370" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I370" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>777</v>
       </c>
@@ -12999,7 +13014,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>777</v>
       </c>
@@ -13025,7 +13040,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>777</v>
       </c>
@@ -13051,7 +13066,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>777</v>
       </c>
@@ -13077,7 +13092,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>777</v>
       </c>
@@ -13103,7 +13118,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>777</v>
       </c>
@@ -13129,7 +13144,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>777</v>
       </c>
@@ -13155,7 +13170,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>777</v>
       </c>
@@ -13181,7 +13196,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>777</v>
       </c>
@@ -13207,7 +13222,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>777</v>
       </c>
@@ -13233,7 +13248,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>824</v>
       </c>
@@ -13259,7 +13274,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>824</v>
       </c>
@@ -13285,7 +13300,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>829</v>
       </c>
@@ -13311,7 +13326,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>829</v>
       </c>

--- a/doc/moodle_api_functions_service_alignment.xlsx
+++ b/doc/moodle_api_functions_service_alignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/zhaw/moodle-autopilot/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1303D9-1066-BF42-8DBF-A0C776689A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE45D0F-B167-6C4A-AD71-EBE4D1E08996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="500" windowWidth="23620" windowHeight="16160" xr2:uid="{4A1A6958-026D-2A45-AE79-6259C8271175}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="1257">
   <si>
     <t>Area</t>
   </si>
@@ -4189,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E3D07F-206A-2147-86B7-617CA66DDB11}">
   <dimension ref="A1:I591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C354" workbookViewId="0">
-      <selection activeCell="I369" sqref="I369"/>
+    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>310</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>310</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>310</v>
       </c>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>310</v>
       </c>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>310</v>
       </c>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>310</v>
       </c>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>310</v>
       </c>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>310</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>310</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>310</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>310</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>310</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>310</v>
       </c>
@@ -7733,8 +7733,11 @@
       <c r="H157" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I157" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>310</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>310</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>310</v>
       </c>

--- a/doc/moodle_api_functions_service_alignment.xlsx
+++ b/doc/moodle_api_functions_service_alignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/zhaw/moodle-autopilot/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE45D0F-B167-6C4A-AD71-EBE4D1E08996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872728AE-0A7A-2749-A355-5269EBADAE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="500" windowWidth="23620" windowHeight="16160" xr2:uid="{4A1A6958-026D-2A45-AE79-6259C8271175}"/>
+    <workbookView xWindow="80380" yWindow="-10300" windowWidth="41500" windowHeight="28300" xr2:uid="{4A1A6958-026D-2A45-AE79-6259C8271175}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1258">
   <si>
     <t>Area</t>
   </si>
@@ -3805,6 +3805,9 @@
   </si>
   <si>
     <t>MUST</t>
+  </si>
+  <si>
+    <t>NOT SURE WHAT THIS DOES</t>
   </si>
 </sst>
 </file>
@@ -4187,10 +4190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E3D07F-206A-2147-86B7-617CA66DDB11}">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:J591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8952,7 +8955,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>448</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>448</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>448</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>448</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>461</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="84" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>464</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="84" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>464</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="63" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>464</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>471</v>
       </c>
@@ -9175,8 +9178,11 @@
       <c r="H217" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I217" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>471</v>
       </c>
@@ -9199,8 +9205,11 @@
       <c r="H218" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I218" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>471</v>
       </c>
@@ -9223,8 +9232,11 @@
       <c r="H219" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I219" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>471</v>
       </c>
@@ -9247,8 +9259,11 @@
       <c r="H220" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I220" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>471</v>
       </c>
@@ -9271,8 +9286,11 @@
       <c r="H221" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I221" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>471</v>
       </c>
@@ -9296,7 +9314,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>471</v>
       </c>
@@ -9319,8 +9337,11 @@
       <c r="H223" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I223" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>471</v>
       </c>
@@ -9346,7 +9367,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>471</v>
       </c>
@@ -9372,7 +9393,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>471</v>
       </c>
@@ -9397,8 +9418,11 @@
       <c r="H226" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I226" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>471</v>
       </c>
@@ -9423,8 +9447,11 @@
       <c r="H227" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I227" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>471</v>
       </c>
@@ -9450,7 +9477,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>471</v>
       </c>
@@ -9473,8 +9500,11 @@
       <c r="H229" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I229" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>471</v>
       </c>
@@ -9497,8 +9527,14 @@
       <c r="H230" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I230" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>471</v>
       </c>
@@ -9521,8 +9557,11 @@
       <c r="H231" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="I231" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>471</v>
       </c>
@@ -9546,7 +9585,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>471</v>
       </c>
@@ -9570,7 +9609,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>471</v>
       </c>
@@ -9594,7 +9633,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>508</v>
       </c>
@@ -9620,7 +9659,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>511</v>
       </c>
@@ -9646,7 +9685,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>511</v>
       </c>
@@ -9672,7 +9711,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>511</v>
       </c>
@@ -9698,7 +9737,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>511</v>
       </c>
@@ -9724,7 +9763,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>511</v>
       </c>
